--- a/UZ-REPOS/SPA/EDITION/DOC/SCG/Модель услуг SCG v.0.1.xlsx
+++ b/UZ-REPOS/SPA/EDITION/DOC/SCG/Модель услуг SCG v.0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FORIS_WORK\ SC\UZ\SCG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@MyRepos\FORIS_WORK\UZ-REPOS\SPA\EDITION\DOC\SCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Версия</t>
   </si>
@@ -126,22 +126,19 @@
     <t>АИИСКУЭ</t>
   </si>
   <si>
-    <t>FRAPABSOLUT</t>
-  </si>
-  <si>
-    <t>Абонентская плата за ТП ABSOLUT</t>
-  </si>
-  <si>
-    <t>FRAPOPTIMA</t>
-  </si>
-  <si>
-    <t>Абонентская плата за ТП Optima</t>
-  </si>
-  <si>
-    <t>Значение параметра 'RFS_SCG_SUBSCRIBER'</t>
-  </si>
-  <si>
-    <t>Значение параметра 'RES_SCG_SUBCRIPTION_TYPE'</t>
+    <t>SCPBREAKSESSION</t>
+  </si>
+  <si>
+    <t>FRINSPECT</t>
+  </si>
+  <si>
+    <t>Разрыв GPRS сессии на SCG</t>
+  </si>
+  <si>
+    <t>Значение параметра 'RES_SCG_PROFILE'</t>
+  </si>
+  <si>
+    <t>Подписка на инспектор</t>
   </si>
 </sst>
 </file>
@@ -316,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -429,13 +426,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -449,63 +468,8 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,15 +580,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -645,12 +600,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -661,63 +653,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -736,7 +693,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -799,82 +756,28 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,28 +786,55 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1251,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1332,7 +1262,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1271,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1352,7 +1282,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1361,7 +1291,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
@@ -1385,7 +1315,7 @@
   <dimension ref="A1:AMN58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1393,10 +1323,10 @@
     <col min="1" max="1" width="13.375" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18" style="15" customWidth="1"/>
     <col min="5" max="6" width="14.125" style="15" customWidth="1"/>
     <col min="7" max="7" width="9" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="15" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="15" customWidth="1"/>
     <col min="10" max="10" width="20.125" style="15" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
@@ -1408,51 +1338,45 @@
     <col min="17" max="1028" width="8.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="43" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="23" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
@@ -1466,50 +1390,46 @@
         <v>34</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="56">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="31" t="s">
+      <c r="E4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>16</v>
+      <c r="D5" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
@@ -1520,20 +1440,18 @@
       <c r="G5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="31" t="s">
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>16</v>
+      <c r="D6" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>16</v>
@@ -1544,94 +1462,67 @@
       <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="46"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="42">
-        <v>111</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="46"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="42">
-        <v>112</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
     <row r="20" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
@@ -1739,7 +1630,6 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -1756,7 +1646,6 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
@@ -1773,7 +1662,6 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -1790,7 +1678,6 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
@@ -1807,7 +1694,6 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
@@ -1824,7 +1710,6 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
@@ -1840,8 +1725,6 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -1857,7 +1740,6 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
@@ -1872,7 +1754,6 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
@@ -1887,7 +1768,6 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
@@ -1902,7 +1782,6 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
@@ -1917,7 +1796,6 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
@@ -1932,7 +1810,6 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
@@ -2050,18 +1927,13 @@
       <c r="O58" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F1:I1"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/UZ-REPOS/SPA/EDITION/DOC/SCG/Модель услуг SCG v.0.1.xlsx
+++ b/UZ-REPOS/SPA/EDITION/DOC/SCG/Модель услуг SCG v.0.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Версия</t>
   </si>
@@ -42,9 +42,6 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>Черкашин К.Л.</t>
-  </si>
-  <si>
     <t>Первая версия модели услуг</t>
   </si>
   <si>
@@ -139,6 +136,12 @@
   </si>
   <si>
     <t>Подписка на инспектор</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Хованский В.Д.</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -609,30 +612,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -693,7 +672,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -774,9 +753,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,28 +765,10 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,17 +783,29 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1126,7 +1096,7 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,14 +1138,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1200,15 +1172,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5"/>
     </row>
@@ -1241,10 +1213,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -1252,51 +1224,51 @@
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1312,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN58"/>
+  <dimension ref="A1:AMN57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1297,7 @@
     <col min="3" max="3" width="9.125" style="15" customWidth="1"/>
     <col min="4" max="4" width="18" style="15" customWidth="1"/>
     <col min="5" max="6" width="14.125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="15" customWidth="1"/>
     <col min="8" max="8" width="17.625" style="15" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="15" customWidth="1"/>
     <col min="10" max="10" width="20.125" style="15" customWidth="1"/>
@@ -1339,141 +1311,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="40"/>
+      <c r="A1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="42"/>
       <c r="H1" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="38"/>
+      <c r="F2" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="44"/>
       <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="39">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="44">
-        <v>0</v>
-      </c>
-      <c r="G3" s="46">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="47"/>
+      <c r="E4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-    </row>
+        <v>13</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="14"/>
+    </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I13" s="14"/>
     </row>
@@ -1490,11 +1439,13 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H20" s="14"/>
@@ -1522,6 +1473,7 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1537,6 +1489,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G28" s="14"/>
@@ -1580,12 +1533,22 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
@@ -1613,7 +1576,6 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
@@ -1709,7 +1671,6 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
@@ -1725,7 +1686,6 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
-      <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
@@ -1809,7 +1769,6 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
@@ -1836,7 +1795,6 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
@@ -1914,25 +1872,12 @@
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A5:A8"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>

--- a/UZ-REPOS/SPA/EDITION/DOC/SCG/Модель услуг SCG v.0.1.xlsx
+++ b/UZ-REPOS/SPA/EDITION/DOC/SCG/Модель услуг SCG v.0.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>Версия</t>
   </si>
@@ -142,6 +142,45 @@
   </si>
   <si>
     <t>Хованский В.Д.</t>
+  </si>
+  <si>
+    <t>FRAPCORMAXI</t>
+  </si>
+  <si>
+    <t>FRAPCORPPERF</t>
+  </si>
+  <si>
+    <t>FRAPMAXINEWSUM</t>
+  </si>
+  <si>
+    <t>FRAPCORP777</t>
+  </si>
+  <si>
+    <t>FRAPCORPULTRA</t>
+  </si>
+  <si>
+    <t>FRAPCORPVIP</t>
+  </si>
+  <si>
+    <t>Абонентская плата за ТП Corporate MAXI</t>
+  </si>
+  <si>
+    <t>Абонентская плата за ТП Corporate Perfect</t>
+  </si>
+  <si>
+    <t>Абонентская плата за ТП Maxi New SUM</t>
+  </si>
+  <si>
+    <t>Абонентская плата за ТП Corporate 777</t>
+  </si>
+  <si>
+    <t>Абонентская плата за ТП Corporate Ultra</t>
+  </si>
+  <si>
+    <t>Абонентская плата за ТП Corporate VIP</t>
+  </si>
+  <si>
+    <t>Значение параметра 'RES_SCG_PRODUCT_ID'</t>
   </si>
 </sst>
 </file>
@@ -152,7 +191,7 @@
     <numFmt numFmtId="164" formatCode="[$-419]General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$руб.-419];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$руб.-419]"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,15 +281,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -316,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -501,51 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -576,30 +561,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -658,6 +619,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -672,7 +697,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -762,50 +787,56 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1223,7 +1254,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1234,7 +1265,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1274,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1254,7 +1285,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
@@ -1263,7 +1294,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1318,7 @@
   <dimension ref="A1:AMN57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1295,38 +1326,46 @@
     <col min="1" max="1" width="13.375" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18" style="15" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="15" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="15" customWidth="1"/>
     <col min="8" max="8" width="17.625" style="15" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="15" customWidth="1"/>
     <col min="10" max="10" width="20.125" style="15" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
-    <col min="12" max="12" width="32.5" style="15" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="15" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="15" customWidth="1"/>
+    <col min="13" max="13" width="8" style="15" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="15" customWidth="1"/>
     <col min="16" max="16" width="46.625" style="14" customWidth="1"/>
     <col min="17" max="1028" width="8.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="22" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
@@ -1342,13 +1381,34 @@
       <c r="E2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="41"/>
+      <c r="N2" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
@@ -1364,15 +1424,34 @@
       <c r="E3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="36">
         <v>0</v>
       </c>
-      <c r="G3" s="39">
+      <c r="M3" s="38">
         <v>1</v>
       </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="36"/>
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>21</v>
       </c>
@@ -1388,12 +1467,31 @@
       <c r="E4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="F4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
       <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
@@ -1406,33 +1504,270 @@
       <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="M5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1000113</v>
+      </c>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="18">
+        <v>1000148</v>
+      </c>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1000150</v>
+      </c>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1000155</v>
+      </c>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="7:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1532,6 +1867,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
+      <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
@@ -1870,15 +2206,15 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="6">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
